--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\халтура\Pablo Hookahbar\Pablo-hookahbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1284C560-A0D1-44F0-9DB6-65C867F1D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753C4AB-A1DC-4A84-8B07-4389DB8698AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>300мл</t>
   </si>
   <si>
-    <t>Морс, компот</t>
-  </si>
-  <si>
     <t>Морс клюква</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
     <t>Домашние компоты.jpg</t>
   </si>
   <si>
-    <t>Лимонад, сок</t>
-  </si>
-  <si>
     <t>Тархун лимонад</t>
   </si>
   <si>
@@ -1163,6 +1157,12 @@
   </si>
   <si>
     <t>Добавки.jpg</t>
+  </si>
+  <si>
+    <t>Морс,компот</t>
+  </si>
+  <si>
+    <t>Лимонад,сок</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1576,8 @@
   <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D13" s="1">
         <v>200</v>
@@ -2247,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2471,10 +2471,10 @@
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1">
         <v>110</v>
@@ -2483,16 +2483,16 @@
         <v>137</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57" s="1">
         <v>110</v>
@@ -2501,16 +2501,16 @@
         <v>137</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1">
         <v>110</v>
@@ -2519,16 +2519,16 @@
         <v>137</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1">
         <v>110</v>
@@ -2537,16 +2537,16 @@
         <v>137</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D60" s="1">
         <v>110</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2569,10 +2569,10 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D62" s="11">
         <v>120</v>
@@ -2585,10 +2585,10 @@
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D63" s="11">
         <v>120</v>
@@ -2601,10 +2601,10 @@
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D64" s="11">
         <v>110</v>
@@ -2617,10 +2617,10 @@
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1">
         <v>110</v>
@@ -2633,10 +2633,10 @@
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D66" s="11">
         <v>220</v>
@@ -2649,10 +2649,10 @@
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="11">
         <v>220</v>
@@ -2665,10 +2665,10 @@
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D68" s="11">
         <v>220</v>
@@ -2681,10 +2681,10 @@
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" s="11">
         <v>220</v>
@@ -2697,10 +2697,10 @@
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D70" s="11">
         <v>220</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2723,10 +2723,10 @@
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D72" s="1">
         <v>120</v>
@@ -2737,10 +2737,10 @@
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D73" s="1">
         <v>120</v>
@@ -2751,10 +2751,10 @@
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D74" s="1">
         <v>120</v>
@@ -2765,10 +2765,10 @@
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D75" s="1">
         <v>120</v>
@@ -2779,10 +2779,10 @@
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1">
         <v>150</v>
@@ -2793,10 +2793,10 @@
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D77" s="1">
         <v>160</v>
@@ -2807,10 +2807,10 @@
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D78" s="1">
         <v>130</v>
@@ -2821,10 +2821,10 @@
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D79" s="1">
         <v>130</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2845,87 +2845,87 @@
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D81" s="1">
         <v>250</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D82" s="1">
         <v>250</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83" s="1">
         <v>250</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D84" s="1">
         <v>250</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D85" s="1">
         <v>250</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>105</v>
@@ -2935,44 +2935,44 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D87" s="1">
         <v>250</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D88" s="1">
         <v>250</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2983,10 +2983,10 @@
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D90" s="1">
         <v>220</v>
@@ -2997,10 +2997,10 @@
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" s="1">
         <v>220</v>
@@ -3011,10 +3011,10 @@
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D92" s="1">
         <v>220</v>
@@ -3025,10 +3025,10 @@
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D93" s="1">
         <v>220</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3049,222 +3049,222 @@
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D95" s="1">
         <v>280</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D96" s="1">
         <v>280</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D97" s="1">
         <v>280</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D98" s="1">
         <v>280</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D99" s="1">
         <v>280</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D100" s="1">
         <v>280</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D101" s="1">
         <v>280</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D102" s="1">
         <v>160</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D103" s="1">
         <v>160</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D104" s="1">
         <v>160</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D105" s="1">
         <v>160</v>
       </c>
       <c r="E105" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D106" s="1">
         <v>160</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3275,10 +3275,10 @@
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D108" s="1">
         <v>70</v>
@@ -3289,10 +3289,10 @@
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D109" s="1">
         <v>70</v>
@@ -3303,10 +3303,10 @@
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D110" s="1">
         <v>70</v>
@@ -3317,10 +3317,10 @@
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D111" s="1">
         <v>70</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3341,7 +3341,7 @@
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>29</v>
@@ -3355,10 +3355,10 @@
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D114" s="1">
         <v>60</v>
@@ -3369,10 +3369,10 @@
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D115" s="1">
         <v>40</v>
@@ -3383,10 +3383,10 @@
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" s="1">
         <v>70</v>
@@ -3397,10 +3397,10 @@
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D117" s="1">
         <v>60</v>
@@ -3411,10 +3411,10 @@
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D118" s="1">
         <v>60</v>
@@ -3425,10 +3425,10 @@
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D119" s="1">
         <v>40</v>
@@ -3439,10 +3439,10 @@
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D120" s="1">
         <v>60</v>
@@ -3453,10 +3453,10 @@
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D121" s="1">
         <v>60</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3477,60 +3477,60 @@
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D123" s="1">
         <v>290</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D124" s="1">
         <v>290</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D125" s="1">
         <v>290</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3541,96 +3541,96 @@
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D127" s="11">
         <v>260</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D128" s="11">
         <v>260</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D129" s="11">
         <v>260</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D130" s="11">
         <v>260</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D131" s="11">
         <v>260</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -3641,42 +3641,42 @@
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D133" s="1">
         <v>230</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D134" s="1">
         <v>210</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -3687,28 +3687,28 @@
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D136" s="1">
         <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D137" s="1">
         <v>190</v>
@@ -3717,70 +3717,70 @@
         <v>12</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D138" s="1">
         <v>220</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D139" s="1">
         <v>210</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D140" s="1">
         <v>210</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D141" s="1">
         <v>330</v>
@@ -3789,16 +3789,16 @@
         <v>12</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D142" s="1">
         <v>330</v>
@@ -3807,25 +3807,25 @@
         <v>12</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D143" s="1">
         <v>200</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,10 +3841,10 @@
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D145" s="1">
         <v>180</v>
@@ -3869,10 +3869,10 @@
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D147" s="1">
         <v>300</v>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\халтура\Pablo Hookahbar\Pablo-hookahbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753C4AB-A1DC-4A84-8B07-4389DB8698AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35BCE8-6AB6-4FE0-A6B4-1F83DAF09850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="382">
   <si>
     <t>Назание</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Вес/объём</t>
-  </si>
-  <si>
-    <t>350мл</t>
   </si>
   <si>
     <t>500мл</t>
@@ -481,12 +478,6 @@
     <t>Необычный вкус и источник витаминов</t>
   </si>
   <si>
-    <t>Домашние компоты</t>
-  </si>
-  <si>
-    <t>Домашние компоты.jpg</t>
-  </si>
-  <si>
     <t>Тархун лимонад</t>
   </si>
   <si>
@@ -1163,13 +1154,35 @@
   </si>
   <si>
     <t>Лимонад,сок</t>
+  </si>
+  <si>
+    <t>1л</t>
+  </si>
+  <si>
+    <t>Стекло 0,5л</t>
+  </si>
+  <si>
+    <t>Стекло 0,25л</t>
+  </si>
+  <si>
+    <t>1 шарик</t>
+  </si>
+  <si>
+    <t>100г</t>
+  </si>
+  <si>
+    <t>Добавки</t>
+  </si>
+  <si>
+    <t>Альтернативное молоко в ассортименте - 50₽&lt;br&gt;
+Сиропы в ассортименте - 30₽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1204,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1220,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1251,6 +1270,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1576,8 +1596,8 @@
   <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,9 +1651,7 @@
       <c r="D3" s="6">
         <v>3000</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,158 +1665,140 @@
       <c r="D4" s="6">
         <v>3500</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>3700</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="11">
         <v>1600</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>1500</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>1400</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>1700</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>1800</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1800</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>1100</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D13" s="1">
         <v>200</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1809,150 +1809,150 @@
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>280</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>280</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>280</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>280</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>280</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>280</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1">
         <v>280</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>280</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1963,132 +1963,132 @@
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>280</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>280</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
         <v>280</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>280</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1">
         <v>280</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1">
         <v>280</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>280</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2099,132 +2099,132 @@
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1">
         <v>280</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1">
         <v>280</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>280</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1">
         <v>280</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1">
         <v>280</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
         <v>280</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1">
         <v>280</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2235,96 +2235,96 @@
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>550</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1">
         <v>550</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1">
         <v>550</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1">
         <v>550</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="D44" s="1">
         <v>550</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2335,10 +2335,10 @@
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1">
         <v>80</v>
@@ -2349,10 +2349,10 @@
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1">
         <v>80</v>
@@ -2363,10 +2363,10 @@
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="D48" s="1">
         <v>150</v>
@@ -2377,10 +2377,10 @@
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1">
         <v>120</v>
@@ -2391,10 +2391,10 @@
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1">
         <v>140</v>
@@ -2405,10 +2405,10 @@
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1">
         <v>170</v>
@@ -2419,10 +2419,10 @@
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1">
         <v>160</v>
@@ -2433,10 +2433,10 @@
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="1">
         <v>180</v>
@@ -2447,10 +2447,10 @@
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="1">
         <v>190</v>
@@ -2459,82 +2459,78 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="1">
-        <v>110</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A56" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1">
         <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1">
         <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1">
         <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>148</v>
@@ -2543,22 +2539,24 @@
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D60" s="1">
         <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2569,150 +2567,150 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="11">
         <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D63" s="11">
         <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D64" s="11">
         <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D65" s="1">
         <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D66" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D68" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D69" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D70" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2723,118 +2721,134 @@
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D72" s="1">
         <v>120</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D73" s="1">
         <v>120</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1">
         <v>120</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D75" s="1">
         <v>120</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D76" s="1">
         <v>150</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D77" s="1">
         <v>160</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D78" s="1">
         <v>130</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D79" s="1">
         <v>130</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2845,134 +2859,134 @@
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D81" s="1">
         <v>250</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D82" s="1">
         <v>250</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83" s="1">
         <v>250</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D84" s="1">
         <v>250</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D85" s="1">
         <v>250</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="1">
         <v>250</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D87" s="1">
         <v>250</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D88" s="1">
         <v>250</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2983,10 +2997,10 @@
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D90" s="1">
         <v>220</v>
@@ -2997,10 +3011,10 @@
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="1">
         <v>220</v>
@@ -3011,10 +3025,10 @@
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" s="1">
         <v>220</v>
@@ -3025,10 +3039,10 @@
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D93" s="1">
         <v>220</v>
@@ -3038,7 +3052,7 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3049,222 +3063,222 @@
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D95" s="1">
         <v>280</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D96" s="1">
         <v>280</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D97" s="1">
         <v>280</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D98" s="1">
         <v>280</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D99" s="1">
         <v>280</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D100" s="1">
         <v>280</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D101" s="1">
         <v>280</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D102" s="1">
         <v>160</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" s="1">
         <v>160</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D104" s="1">
         <v>160</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D105" s="1">
         <v>160</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D106" s="1">
         <v>160</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3275,62 +3289,70 @@
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D108" s="1">
         <v>70</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D109" s="1">
         <v>70</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D110" s="1">
         <v>70</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D111" s="1">
         <v>70</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3341,132 +3363,150 @@
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="1">
         <v>80</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D114" s="1">
         <v>60</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D115" s="1">
         <v>40</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D116" s="1">
         <v>70</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D117" s="1">
         <v>60</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D118" s="1">
         <v>60</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D119" s="1">
         <v>40</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D120" s="1">
         <v>60</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D121" s="1">
         <v>60</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3477,60 +3517,60 @@
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D123" s="1">
         <v>290</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D124" s="1">
         <v>290</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D125" s="1">
         <v>290</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3541,96 +3581,96 @@
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D127" s="11">
         <v>260</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D128" s="11">
         <v>260</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D129" s="11">
         <v>260</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D130" s="11">
         <v>260</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D131" s="11">
         <v>260</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -3641,42 +3681,42 @@
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="D133" s="1">
         <v>230</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D134" s="1">
         <v>210</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -3687,150 +3727,150 @@
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D136" s="1">
         <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D137" s="1">
         <v>190</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D138" s="1">
         <v>220</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D139" s="1">
         <v>210</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D140" s="1">
         <v>210</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D141" s="1">
         <v>330</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D142" s="1">
         <v>330</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D143" s="1">
         <v>200</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -3841,10 +3881,10 @@
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D145" s="1">
         <v>180</v>
@@ -3855,10 +3895,10 @@
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D146" s="1">
         <v>250</v>
@@ -3869,10 +3909,10 @@
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D147" s="1">
         <v>300</v>
@@ -3883,10 +3923,10 @@
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D148" s="1">
         <v>180</v>
@@ -3897,10 +3937,10 @@
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D149" s="1">
         <v>180</v>
@@ -6165,6 +6205,7 @@
       <c r="F431" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">
